--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6E9606-E6E5-430C-B81C-8AA94061E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A9BFF-B0A8-4D16-92C7-E7E20A1E06C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>https://www.figma.com/file/bxToUy6ylJsOtMk0nXZpcq/Untitled?type=design&amp;node-id=0%3A1&amp;mode=design&amp;t=KhVnzu9r1VwbKPjd-1</t>
+  </si>
+  <si>
+    <t>POC : je lis un epub, ok | Je me déplace d'une page à l'autre et j'apprends à faire du MAUI</t>
   </si>
 </sst>
 </file>
@@ -426,15 +429,15 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1043,10 +1046,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.14583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1974,7 +1977,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2009,11 +2012,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2027,7 +2030,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 30 minutes</v>
+        <v>0 jours 7 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2042,24 +2045,24 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -2112,15 +2115,19 @@
       <c r="B8" s="39">
         <v>45369</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="35">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0</v>
+      </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="54" t="s">
         <v>31</v>
       </c>
       <c r="M8" t="s">
@@ -2134,15 +2141,25 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="str">
+      <c r="A9" s="14">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="48"/>
+        <v>13</v>
+      </c>
+      <c r="B9" s="40">
+        <v>45376</v>
+      </c>
+      <c r="C9" s="36">
+        <v>3</v>
+      </c>
+      <c r="D9" s="44">
+        <v>30</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="20"/>
       <c r="M9" t="s">
         <v>4</v>
@@ -8267,7 +8284,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8279,17 +8296,17 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" s="29" t="str">
         <f>'Journal de travail'!M10</f>
@@ -8297,7 +8314,7 @@
       </c>
       <c r="D6" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8388,7 +8405,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8667,6 +8684,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8676,15 +8702,6 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8708,6 +8725,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8719,12 +8744,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A9BFF-B0A8-4D16-92C7-E7E20A1E06C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C8047A-9EDF-444D-B816-E30CCB6FE01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>POC : je lis un epub, ok | Je me déplace d'une page à l'autre et j'apprends à faire du MAUI</t>
+  </si>
+  <si>
+    <t>Créer un fond d'écran d'une certaine couleur</t>
+  </si>
+  <si>
+    <t>Créer la page de connexion et d'accueil</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1052,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333334</c:v>
@@ -1977,7 +1983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2036,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 7 heurs 0 minutes</v>
+        <v>0 jours 8 heurs 30 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2049,11 +2055,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2172,14 +2178,23 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="str">
+      <c r="A10" s="14">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="39"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="39">
+        <v>45397</v>
+      </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="43"/>
-      <c r="F10" s="48"/>
+      <c r="D10" s="43">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>33</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -2192,15 +2207,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="str">
+      <c r="A11" s="14">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="40"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="39">
+        <v>45397</v>
+      </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="48"/>
+      <c r="D11" s="44">
+        <v>55</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -8288,7 +8311,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8296,7 +8319,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8405,7 +8428,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.29166666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8684,15 +8707,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8702,6 +8716,15 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8725,14 +8748,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8744,4 +8759,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C8047A-9EDF-444D-B816-E30CCB6FE01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C6E41-C952-4884-BFC5-DB33273A18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Créer la page de connexion et d'accueil</t>
+  </si>
+  <si>
+    <t>J'essaie d'afficher le Epub dans MAUI je n'y arrive pas</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.22569444444444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333334</c:v>
@@ -1983,7 +1986,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2039,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 8 heurs 30 minutes</v>
+        <v>0 jours 9 heurs 25 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2055,11 +2058,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2236,14 +2239,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="str">
+      <c r="A12" s="14">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="39"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="39">
+        <v>45397</v>
+      </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="43"/>
-      <c r="F12" s="48"/>
+      <c r="D12" s="43">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -8311,7 +8323,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8319,7 +8331,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.1875</v>
+        <v>0.22569444444444445</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8428,7 +8440,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.35416666666666669</v>
+        <v>0.3923611111111111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8707,6 +8719,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8716,15 +8737,6 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8748,6 +8760,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8759,12 +8779,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C6E41-C952-4884-BFC5-DB33273A18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B3D0D-3C5F-4994-895C-94A180E2752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>J'essaie d'afficher le Epub dans MAUI je n'y arrive pas</t>
+  </si>
+  <si>
+    <t>Je règle une erreur que j'ai eu en essayant de lire un Epub, je n'ai pas compris ce que c'était donc j'ai rechargé une vieille version.</t>
+  </si>
+  <si>
+    <t>J'ai avancé sur ma page d'accueil</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1061,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22569444444444445</c:v>
+                  <c:v>0.25347222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333334</c:v>
@@ -1986,7 +1992,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2039,7 +2045,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 9 heurs 25 minutes</v>
+        <v>0 jours 10 heurs 5 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2058,11 +2064,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2267,16 +2273,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="40"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="40">
+        <v>45397</v>
+      </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="48"/>
+      <c r="D13" s="44">
+        <v>30</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="20"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2289,14 +2303,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="str">
+      <c r="A14" s="14">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="39"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="39">
+        <v>45397</v>
+      </c>
       <c r="C14" s="35"/>
-      <c r="D14" s="43"/>
-      <c r="F14" s="48"/>
+      <c r="D14" s="43">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="M14" t="s">
         <v>24</v>
@@ -8323,7 +8346,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8331,7 +8354,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.22569444444444445</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8440,7 +8463,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.3923611111111111</v>
+        <v>0.4201388888888889</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B3D0D-3C5F-4994-895C-94A180E2752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C6E41-C952-4884-BFC5-DB33273A18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -148,12 +148,6 @@
   </si>
   <si>
     <t>J'essaie d'afficher le Epub dans MAUI je n'y arrive pas</t>
-  </si>
-  <si>
-    <t>Je règle une erreur que j'ai eu en essayant de lire un Epub, je n'ai pas compris ce que c'était donc j'ai rechargé une vieille version.</t>
-  </si>
-  <si>
-    <t>J'ai avancé sur ma page d'accueil</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1055,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25347222222222221</c:v>
+                  <c:v>0.22569444444444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333334</c:v>
@@ -1992,7 +1986,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2039,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 10 heurs 5 minutes</v>
+        <v>0 jours 9 heurs 25 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2064,11 +2058,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2273,24 +2267,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="str">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v>16</v>
-      </c>
-      <c r="B13" s="40">
-        <v>45397</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B13" s="40"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="44">
-        <v>30</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>36</v>
-      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="20"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2303,23 +2289,14 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="14" t="str">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v>16</v>
-      </c>
-      <c r="B14" s="39">
-        <v>45397</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B14" s="39"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="43">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>37</v>
-      </c>
+      <c r="D14" s="43"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="17"/>
       <c r="M14" t="s">
         <v>24</v>
@@ -8346,7 +8323,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8354,7 +8331,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.25347222222222221</v>
+        <v>0.22569444444444445</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8463,7 +8440,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.4201388888888889</v>
+        <v>0.3923611111111111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C6E41-C952-4884-BFC5-DB33273A18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21D9288-54B2-4388-AC40-142AB875945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>J'essaie d'afficher le Epub dans MAUI je n'y arrive pas</t>
+  </si>
+  <si>
+    <t>Je règle un problème avec GitHub</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.22569444444444445</c:v>
@@ -1986,7 +1989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2039,7 +2042,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 9 heurs 25 minutes</v>
+        <v>0 jours 9 heurs 35 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2058,11 +2061,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2268,15 +2271,23 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="14">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="40"/>
+        <v>17</v>
+      </c>
+      <c r="B13" s="40">
+        <v>45404</v>
+      </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="48"/>
+      <c r="D13" s="44">
+        <v>10</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="20"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -8305,7 +8316,7 @@
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="28" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8313,7 +8324,7 @@
       </c>
       <c r="D4" s="45">
         <f>(A4+B4)/1440</f>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8440,7 +8451,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.3923611111111111</v>
+        <v>0.39930555555555552</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8719,15 +8730,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8737,6 +8739,15 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8760,14 +8771,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8779,4 +8782,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21D9288-54B2-4388-AC40-142AB875945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2870E6-0B4F-4A08-8882-3B1EE74E5676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Je règle un problème avec GitHub</t>
+  </si>
+  <si>
+    <t>Je crée le menu d'accueil</t>
+  </si>
+  <si>
+    <t>Utiliser Base64 pour convertir/déconvertir en binaire</t>
+  </si>
+  <si>
+    <t>Je crée la structure des livres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser le code ".cs" pour intergair avec le XAML et afficher des images aléatoirement </t>
+  </si>
+  <si>
+    <t>J'avance dans la création des paramètres et de la librairie en même temps</t>
   </si>
 </sst>
 </file>
@@ -343,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -450,6 +465,12 @@
     </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1058,7 +1079,7 @@
                   <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22569444444444445</c:v>
+                  <c:v>0.35069444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333334</c:v>
@@ -1989,7 +2010,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2042,7 +2063,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 9 heurs 35 minutes</v>
+        <v>0 jours 12 heurs 35 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2057,15 +2078,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>575</v>
+        <v>755</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2300,15 +2321,26 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="str">
+      <c r="A14" s="14">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="43"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="B14" s="39">
+        <v>45404</v>
+      </c>
+      <c r="C14" s="35">
+        <v>1</v>
+      </c>
+      <c r="D14" s="43">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="57"/>
       <c r="M14" t="s">
         <v>24</v>
       </c>
@@ -2320,16 +2352,24 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="str">
+      <c r="A15" s="14">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="40"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="40">
+        <v>45404</v>
+      </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="44">
+        <v>20</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="58"/>
       <c r="M15" t="s">
         <v>25</v>
       </c>
@@ -2341,29 +2381,48 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="str">
+      <c r="A16" s="14">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="39"/>
+        <v>17</v>
+      </c>
+      <c r="B16" s="39">
+        <v>45404</v>
+      </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="43"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="17"/>
+      <c r="D16" s="43">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="57"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="str">
+      <c r="A17" s="14">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="48"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="40">
+        <v>45404</v>
+      </c>
+      <c r="C17" s="36">
+        <v>1</v>
+      </c>
+      <c r="D17" s="44">
+        <v>10</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="O17">
         <v>45</v>
@@ -2442,7 +2501,9 @@
       <c r="D23" s="44"/>
       <c r="E23" s="19"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="str">
@@ -8330,11 +8391,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8342,7 +8403,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.22569444444444445</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8451,7 +8512,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.39930555555555552</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2870E6-0B4F-4A08-8882-3B1EE74E5676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF737AF-1D9B-4F1D-B5B0-F01E363E81E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="6795" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>J'avance dans la création des paramètres et de la librairie en même temps</t>
+  </si>
+  <si>
+    <t>J'ai un problème avec mon SSD, il est corrompu</t>
+  </si>
+  <si>
+    <t>J'essaie de stocker des informations en cache, je n'ai pour le moment pas réussi</t>
+  </si>
+  <si>
+    <t>Je crée le menu librairie</t>
+  </si>
+  <si>
+    <t>Je transforme mon code en MVVM et j'essaie d'effectuer une connexion à la base de donnée, pour le moment ne fonctionne pas.</t>
   </si>
 </sst>
 </file>
@@ -459,18 +471,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1076,10 +1088,10 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.9444444444444441E-3</c:v>
+                  <c:v>1.7361111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35069444444444442</c:v>
+                  <c:v>0.47222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333334</c:v>
@@ -2009,8 +2021,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2045,11 +2057,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2063,7 +2075,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 12 heurs 35 minutes</v>
+        <v>0 jours 15 heurs 45 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2078,24 +2090,24 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>275</v>
+        <v>405</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>755</v>
+        <v>945</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -2340,7 +2352,7 @@
       <c r="F14" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="55"/>
       <c r="M14" t="s">
         <v>24</v>
       </c>
@@ -2369,7 +2381,7 @@
       <c r="F15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="58"/>
+      <c r="G15" s="56"/>
       <c r="M15" t="s">
         <v>25</v>
       </c>
@@ -2398,7 +2410,7 @@
       <c r="F16" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="57"/>
+      <c r="G16" s="55"/>
       <c r="O16">
         <v>40</v>
       </c>
@@ -2429,55 +2441,91 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="str">
+      <c r="A18" s="14">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="39"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="39">
+        <v>45411</v>
+      </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="43"/>
-      <c r="F18" s="48"/>
+      <c r="D18" s="43">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="str">
+      <c r="A19" s="14">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="40">
+        <v>45411</v>
+      </c>
       <c r="C19" s="36"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="48"/>
+      <c r="D19" s="44">
+        <v>55</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="G19" s="20"/>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="str">
+      <c r="A20" s="14">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="43"/>
-      <c r="F20" s="48"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="39">
+        <v>45411</v>
+      </c>
+      <c r="C20" s="35">
+        <v>1</v>
+      </c>
+      <c r="D20" s="43">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="str">
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="40">
+        <v>45411</v>
+      </c>
       <c r="C21" s="36"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="48"/>
+      <c r="D21" s="44">
+        <v>20</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -8377,7 +8425,7 @@
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C4" s="28" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8385,17 +8433,17 @@
       </c>
       <c r="D4" s="45">
         <f>(A4+B4)/1440</f>
-        <v>6.9444444444444441E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8403,7 +8451,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.35069444444444442</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8512,7 +8560,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.52430555555555558</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8791,6 +8839,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8800,15 +8857,6 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8832,6 +8880,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8843,12 +8899,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF737AF-1D9B-4F1D-B5B0-F01E363E81E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A10194-B18A-42C1-88FE-8C906FE87743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -178,6 +178,22 @@
   </si>
   <si>
     <t>Je transforme mon code en MVVM et j'essaie d'effectuer une connexion à la base de donnée, pour le moment ne fonctionne pas.</t>
+  </si>
+  <si>
+    <t>Je modifie mon code pour qu'il soit mieux MVVM, j'ai un problème pour faire en sorte que la fonction lorsqu'un bouton est clické se lance depuis le fichier MVVM. Le Binding ne trouve pas ma fonction mais uniquement d'autres éléments "No suitable constructor was found for entity type 'Book'. The following constructors had parameters that could not be bound to properties of the entity type: 
+    Cannot bind 'title', 'category', 'nbrPage', 'author', 'tags', 'coverImage', 'state' in 'Book(string title, string category, int nbrPage, string author, string[] tags, string coverImage, string state)'"</t>
+  </si>
+  <si>
+    <t>Création de la page login, voir maquette comme référence</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>14h25</t>
+  </si>
+  <si>
+    <t>Rendre les boutons de la page de connexion utilisable</t>
   </si>
 </sst>
 </file>
@@ -370,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -474,9 +490,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -484,12 +497,92 @@
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -654,80 +747,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1091,7 +1110,7 @@
                   <c:v>1.7361111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47222222222222221</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333334</c:v>
@@ -1815,18 +1834,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2021,8 +2040,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2057,11 +2076,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2075,7 +2094,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 15 heurs 45 minutes</v>
+        <v>0 jours 18 heurs 25 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2090,24 +2109,24 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>405</v>
+        <v>505</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>945</v>
+        <v>1105</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -2381,7 +2400,9 @@
       <c r="F15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="M15" t="s">
         <v>25</v>
       </c>
@@ -2528,41 +2549,74 @@
       </c>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="str">
+    <row r="22" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="39"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="39">
+        <v>45418</v>
+      </c>
       <c r="C22" s="35"/>
-      <c r="D22" s="43"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="17"/>
+      <c r="D22" s="43">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="str">
+      <c r="A23" s="14">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="20" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="B23" s="40">
+        <v>45418</v>
+      </c>
+      <c r="C23" s="36">
+        <v>1</v>
+      </c>
+      <c r="D23" s="44">
+        <v>10</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="str">
+      <c r="A24" s="14">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="39"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="39">
+        <v>45418</v>
+      </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="43"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="17"/>
+      <c r="D24" s="43">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="59">
+        <f ca="1">NOW()-TODAY()</f>
+        <v>0.63748194444633555</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="str">
@@ -8340,28 +8394,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8439,11 +8493,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8451,7 +8505,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.47222222222222221</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8560,7 +8614,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.65625</v>
+        <v>0.76736111111111127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8839,15 +8893,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8857,6 +8902,15 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8880,14 +8934,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8899,4 +8945,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A10194-B18A-42C1-88FE-8C906FE87743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810A4A96-35AD-4A0E-83A0-90CD3BE86179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Journal de travail'!$A$6:$G$6</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -187,13 +187,10 @@
     <t>Création de la page login, voir maquette comme référence</t>
   </si>
   <si>
-    <t>13h</t>
+    <t>Rendre les boutons de la page de connexion utilisable</t>
   </si>
   <si>
-    <t>14h25</t>
-  </si>
-  <si>
-    <t>Rendre les boutons de la page de connexion utilisable</t>
+    <t>Mettre en place l'API et un container docker pour la DB</t>
   </si>
 </sst>
 </file>
@@ -490,6 +487,12 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -497,92 +500,12 @@
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -747,6 +670,80 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1110,7 +1107,7 @@
                   <c:v>1.7361111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.47916666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333334</c:v>
@@ -1834,18 +1831,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2040,8 +2037,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2076,11 +2073,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2094,7 +2091,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 18 heurs 25 minutes</v>
+        <v>0 jours 18 heurs 54 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2113,20 +2110,20 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>1105</v>
+        <v>1135</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -2186,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>30</v>
@@ -2567,9 +2564,7 @@
       <c r="F22" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>48</v>
-      </c>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
@@ -2591,9 +2586,7 @@
       <c r="F23" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="58" t="s">
-        <v>49</v>
-      </c>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
@@ -2611,23 +2604,28 @@
         <v>4</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="59">
-        <f ca="1">NOW()-TODAY()</f>
-        <v>0.63748194444633555</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G24" s="57"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="str">
+      <c r="A25" s="14">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="40"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="39">
+        <v>45418</v>
+      </c>
       <c r="C25" s="36"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="48"/>
+      <c r="D25" s="44">
+        <v>20</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>49</v>
+      </c>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2637,7 +2635,12 @@
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="43">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
       <c r="F26" s="48"/>
       <c r="G26" s="17"/>
     </row>
@@ -8394,28 +8397,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8493,11 +8496,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8505,7 +8508,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.58333333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8614,7 +8617,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.76736111111111127</v>
+        <v>0.66319444444444453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8893,6 +8896,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8902,15 +8914,6 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8934,6 +8937,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8945,12 +8956,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_BerchelJoachim.xlsx
+++ b/doc/Journal-de-Travail_BerchelJoachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\readingPassion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810A4A96-35AD-4A0E-83A0-90CD3BE86179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2B1904-478C-497B-9A7A-ACD6544EBE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>Mettre en place l'API et un container docker pour la DB</t>
+  </si>
+  <si>
+    <t>J'essaie de récupérer un document txt stocké dans Resources/Raw dans mon application depuis le téléphone. Sans succès</t>
+  </si>
+  <si>
+    <t>J'essaie de faire la connection à la base de donnée. Je n'ai pas réussi. Je vais essayer d'utiliser le "helper" du marketplace</t>
+  </si>
+  <si>
+    <t>J'ai réussi à faire la connexion à la base de donnée grâce au helper</t>
+  </si>
+  <si>
+    <t>J'affiche les données récupérés dans la base de donnée</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1119,7 @@
                   <c:v>1.7361111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47916666666666669</c:v>
+                  <c:v>0.59722222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333334</c:v>
@@ -2037,8 +2049,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2103,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 18 heurs 54 minutes</v>
+        <v>0 jours 21 heurs 45 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2106,15 +2118,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>535</v>
+        <v>585</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>1135</v>
+        <v>1305</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2628,55 +2640,88 @@
       </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="str">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="39">
+        <v>45439</v>
+      </c>
+      <c r="C26" s="35">
+        <v>1</v>
+      </c>
       <c r="D26" s="43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="48"/>
+      <c r="F26" s="48" t="s">
+        <v>50</v>
+      </c>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="str">
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="48"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="40">
+        <v>45439</v>
+      </c>
+      <c r="C27" s="36">
+        <v>1</v>
+      </c>
+      <c r="D27" s="44">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>51</v>
+      </c>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="str">
+      <c r="A28" s="14">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="39"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="39">
+        <v>45439</v>
+      </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="43"/>
-      <c r="F28" s="47"/>
+      <c r="D28" s="43">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>52</v>
+      </c>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="str">
+      <c r="A29" s="14">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="40"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="40">
+        <v>45439</v>
+      </c>
       <c r="C29" s="36"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="47"/>
+      <c r="D29" s="44">
+        <v>25</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>53</v>
+      </c>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -8496,11 +8541,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8508,7 +8553,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.47916666666666669</v>
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8617,7 +8662,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.66319444444444453</v>
+        <v>0.78125000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8896,15 +8941,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8914,6 +8950,15 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8937,14 +8982,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8956,4 +8993,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>